--- a/frequency_analysis_project/uploaded_file.xlsx
+++ b/frequency_analysis_project/uploaded_file.xlsx
@@ -1,164 +1,1238 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danila\Desktop\analyst\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C332FE1-2641-4194-8C0B-02CF6B75E1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Комменты и отзывы" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Современные банковские приложения стали намного удобнее, позволяя клиентам управлять счетами в любое время.</t>
-  </si>
-  <si>
-    <t>Система онлайн-банкинга делает финансовые операции быстрее и безопаснее, сокращая время ожидания.</t>
-  </si>
-  <si>
-    <t>Банковские услуги с интеграцией ИИ помогают предотвращать мошенничество и защищать данные клиентов.</t>
-  </si>
-  <si>
-    <t>Конкуренция между банками привела к улучшению мобильных приложений и снижению комиссий за переводы.</t>
-  </si>
-  <si>
-    <t>Использование мультивалютных счетов делает международные переводы более доступными и выгодными для пользователей.</t>
-  </si>
-  <si>
-    <t>Банки предлагают отличные условия по накопительным счетам, позволяя людям эффективно управлять сбережениями.</t>
-  </si>
-  <si>
-    <t>Современные кредитные программы позволяют гибко выбирать условия и снижать переплаты по процентам.</t>
-  </si>
-  <si>
-    <t>Банковские системы с искусственным интеллектом могут прогнозировать и персонализировать финансовые предложения для клиентов.</t>
-  </si>
-  <si>
-    <t>Современные банки внедряют блокчейн для улучшения прозрачности и безопасности транзакций.</t>
-  </si>
-  <si>
-    <t>Поддержка через чат-ботов в банкинге позволяет быстро решать любые вопросы без ожидания оператора.</t>
-  </si>
-  <si>
-    <t>Банковские системы делают клевые штуки</t>
-  </si>
-  <si>
-    <t>Банковские системы бываю разные, выбери по душе</t>
-  </si>
-  <si>
-    <t>ИИ помогают предотвращать всякую чушь</t>
-  </si>
-  <si>
-    <t>ИИ помогают предотвращать и создавать что-то</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="168">
+  <si>
+    <t>Комментарий</t>
+  </si>
+  <si>
+    <t>Пользуюсь картой уже полгода. Мне нравится кэшбэк - хороший процент возвращается за покупки в супермаркетах. Единственный минус - высокая комиссия за снятие наличных. В целом, карта удобная, но хотелось бы больше бонусов.</t>
+  </si>
+  <si>
+    <t>Как студент, очень доволен этой картой! Бесплатное обслуживание, возможность пополнять без комиссии, и даже есть скидки в некоторых магазинах. Отличное решение для молодых людей.</t>
+  </si>
+  <si>
+    <t>К сожалению, был разочарован работой банка. Ставка по ипотеке оказалась выше, чем обещали по телефону. Документы оформляли долго, и приходилось много раз ходить в офис. Надеюсь, в будущем банк станет более клиентоориентированным.</t>
+  </si>
+  <si>
+    <t>В целом, вклад меня устраивает. Процентная ставка неплохая, и я не беспокоюсь за сохранность своих средств. Единственный минус - нет возможности пополнить вклад онлайн. Хотелось бы, чтобы банк был более современным в этом плане.</t>
+  </si>
+  <si>
+    <t>Отлично! Все операции можно сделать в приложении - переводы, платежи, управление счетами. Интерфейс понятный, работает быстро, никаких проблем. Рекомендую всем!</t>
+  </si>
+  <si>
+    <t>Карта неплохая, но мне не очень нравится, что за границей приходится платить комиссию за снятие наличных. Иногда бывают технические сбои в приложении. В целом, средняя карта.</t>
+  </si>
+  <si>
+    <t>Очень довольна этой картой! Бесплатное обслуживание, стильный дизайн, и даже можно получить скидку в кинотеатре. Отличное решение для тех, кто ценит стиль и удобство.</t>
+  </si>
+  <si>
+    <t>Процентная ставка по ипотеке оказалась немного выше, чем у конкурентов. Но зато менеджер был очень внимательным и помог разобраться со всеми документами. В целом, нормальная ипотека, но есть нюансы.</t>
+  </si>
+  <si>
+    <t>Хороший вклад, процентная ставка выше, чем у других банков. Но жаль, что минимальная сумма для открытия вклада достаточно большая. Для людей с небольшим капиталом, возможно, не подойдет.</t>
+  </si>
+  <si>
+    <t>Приложении удобное, работает быстро, но иногда бывает, что не работает интернет-банк. Иногда возникают проблемы с авторизацией. В целом, хорошее приложение.</t>
+  </si>
+  <si>
+    <t>Пользуюсь этой картой уже несколько лет. Мне нравится, что есть возможность получать бонусы, которые можно потратить на покупки в любимых магазинах. Также очень удобно пользоваться картой за границей.</t>
+  </si>
+  <si>
+    <t>Удобная карта для получения зарплаты, есть возможность оплачивать услуги и товары онлайн. Но хотелось бы, чтобы банк предлагал больше возможностей для cashback.</t>
+  </si>
+  <si>
+    <t>Хороший выбор для семей с детьми, есть возможность снизить процентную ставку, если у вас есть ребенок. Но условия получения ипотеки довольно жесткие.</t>
+  </si>
+  <si>
+    <t>Отличный вклад для долгосрочных накоплений, процентная ставка стабильная, и я не беспокоюсь за сохранность своих средств. Рекомендую всем!</t>
+  </si>
+  <si>
+    <t>Приложении удобное, но иногда бывают проблемы с работой сервиса. В целом, достойное приложение, но есть куда расти.</t>
+  </si>
+  <si>
+    <t>Удобная карта для получения бонусных баллов, но их сложно потратить. Иногда бывают проблемы с зачислением бонусов на счет. В целом, нормальная карта, но есть нюансы.</t>
+  </si>
+  <si>
+    <t>Отличная карта! Есть возможность получать cashback, стильный дизайн, и даже бесплатное обслуживание. Рекомендую всем, кто ценит удобство и комфорт.</t>
+  </si>
+  <si>
+    <t>Процентная ставка по ипотеке оказалась выше, чем у других банков. Но компания предлагает выгодные условия для покупки квартиры в новостройке. В целом, нормальная ипотека, но есть нюансы.</t>
+  </si>
+  <si>
+    <t>Отличный вклад для сбережений, процентная ставка стабильная, и я не беспокоюсь за сохранность своих средств. Рекомендую всем!</t>
+  </si>
+  <si>
+    <t>Приложение удобное, работает быстро, но иногда бывают проблемы с авторизацией. В целом, хорошее приложение, но есть небольшие недостатки.</t>
+  </si>
+  <si>
+    <t>Неплохая карта для повседневных покупок, но нет никаких бонусов. И комиссия за снятие наличных достаточно высокая. В целом, средняя карта.</t>
+  </si>
+  <si>
+    <t>Хороший выбор для молодых семей, есть возможность снизить процентную ставку. Но условия получения ипотеки довольно жесткие.</t>
+  </si>
+  <si>
+    <t>Отличный вклад для пенсионеров, процентная ставка выше, чем у других банков. И удобные условия для снятия денег.</t>
+  </si>
+  <si>
+    <t>Приложение удобное, но не очень информативное. Не всегда можно найти необходимую информацию. В целом, нормальное приложение, но есть недостатки.</t>
+  </si>
+  <si>
+    <t>Удобная карта для путешествий, есть возможность получать бонусы за покупки в зарубежных магазинах. Но комиссия за снятие наличных за границей довольно высокая.</t>
+  </si>
+  <si>
+    <t>Хороший вариант для студентов, есть возможность отложить первый взнос. Но процентная ставка немного выше, чем у других банков.</t>
+  </si>
+  <si>
+    <t>Отличный вклад для долгосрочных накоплений, процентная ставка выше, чем у других банков. И удобные условия для снятия денег.</t>
+  </si>
+  <si>
+    <t>Я не смогла дистанционно подать документы на смену фамилии. Поэтому приехала в банк. Спасибо Диане за отлично выполненную работу. Очень внимательна, вежлива, компетентна. Все очень быстро оформила. Я пришла с ребенком, так она ему зефир дала, мелочь, а приятно))(ребенок очень доволен и передает привет)</t>
+  </si>
+  <si>
+    <t>Мною была закрыта кредитная карта в конце июля 2024 года. В приложении при закрытие было указано то, что карта будет закрыта в течении 45 дней. На данный момент уже прошло более 45 дней и кредитная карта до сих пор отображается в БКИ. Сама карта в приложении пишет закрыта, но не пишет что закрыт счет. Скажите, сколько еще можно ждать?</t>
+  </si>
+  <si>
+    <t>Очень удобное и простое приложение. Все операции легко найти, интерфейс интуитивно понятен. Очень доволен!</t>
+  </si>
+  <si>
+    <t>Мобильное приложение Мой банк" очень удобное и интуитивно понятное. Все операции легко найти и выполнить.</t>
+  </si>
+  <si>
+    <t>Замечательный кредит!  Все условия прозрачны, без скрытых комиссий и платежей.</t>
+  </si>
+  <si>
+    <t>Пользуюсь картой уже полгода. Мне нравится кэшбэк - хороший процент возвращается за покупки в супермаркетах. Единственный минус - высокая комиссия за снятие наличных. В целом, карта удобная, но хотелось бы больше бонусов. Дебетовая карта "Студенческая"</t>
+  </si>
+  <si>
+    <t>Как студент, очень доволен этой картой! Бесплатное обслуживание, возможность пополнять без комиссии, и даже есть скидки в некоторых магазинах. Отличное решение для молодых людей. Ипотека "Счастливый дом"</t>
+  </si>
+  <si>
+    <t>К сожалению, был разочарован работой банка. Ставка по ипотеке оказалась выше, чем обещали по телефону. Документы оформляли долго, и приходилось много раз ходить в офис. Надеюсь, в будущем банк станет более клиентоориентированным. Вклад "Стабильный"</t>
+  </si>
+  <si>
+    <t>В целом, вклад меня устраивает. Процентная ставка неплохая, и я не беспокоюсь за сохранность своих средств. Единственный минус - нет возможности пополнить вклад онлайн. Хотелось бы, чтобы банк был более современным в этом плане. Мобильное приложение "БАНК"</t>
+  </si>
+  <si>
+    <t>Отлично! Все операции можно сделать в приложении - переводы, платежи, управление счетами. Интерфейс понятный, работает быстро, никаких проблем. Рекомендую всем! Кредитная карта "Без границ"</t>
+  </si>
+  <si>
+    <t>Карта неплохая, но мне не очень нравится, что за границей приходится платить комиссию за снятие наличных. Иногда бывают технические сбои в приложении. В целом, средняя карта. Дебетовая карта "Молодежная"</t>
+  </si>
+  <si>
+    <t>Очень довольна этой картой! Бесплатное обслуживание, стильный дизайн, и даже можно получить скидку в кинотеатре. Отличное решение для тех, кто ценит стиль и удобство. Ипотека "Моя квартира"</t>
+  </si>
+  <si>
+    <t>Процентная ставка по ипотеке оказалась немного выше, чем у конкурентов. Но зато менеджер был очень внимательным и помог разобраться со всеми документами. В целом, нормальная ипотека, но есть нюансы. Вклад "Доходный"</t>
+  </si>
+  <si>
+    <t>Пользуюсь этой картой уже несколько лет. Мне нравится, что есть возможность получать бонусы, которые можно потратить на покупки в любимых магазинах. Также очень удобно пользоваться картой за границей. Дебетовая карта "Зарплатная"</t>
+  </si>
+  <si>
+    <t>Удобная карта для получения зарплаты, есть возможность оплачивать услуги и товары онлайн. Но хотелось бы, чтобы банк предлагал больше возможностей для cashback. Ипотека "Семейная"</t>
+  </si>
+  <si>
+    <t>Хороший вклад, процентная ставка выше, чем у других банков. Но жаль, что минимальная сумма для открытия вклада достаточно большая. Для людей с небольшим капиталом, возможно, не подойдет. Мобильное приложение "SMART"</t>
+  </si>
+  <si>
+    <t>Приложении удобное, работает быстро, но иногда бывает, что не работает интернет-банк. Иногда возникают проблемы с авторизацией. В целом, хорошее приложение. Кредитная карта "Статус"</t>
+  </si>
+  <si>
+    <t>Хороший выбор для семей с детьми, есть возможность снизить процентную ставку, если у вас есть ребенок. Но условия получения ипотеки довольно жесткие. Вклад "Накопительный"</t>
+  </si>
+  <si>
+    <t>Отличный вклад для долгосрочных накоплений, процентная ставка стабильная, и я не беспокоюсь за сохранность своих средств. Рекомендую всем! Мобильное приложение "PRO"</t>
+  </si>
+  <si>
+    <t>Приложении удобное, но иногда бывают проблемы с работой сервиса. В целом, достойное приложение, но есть куда расти. Кредитная карта "Бонусная"</t>
+  </si>
+  <si>
+    <t>Удобная карта для получения бонусных баллов, но их сложно потратить. Иногда бывают проблемы с зачислением бонусов на счет. В целом, нормальная карта, но есть нюансы. Дебетовая карта "Премиум"</t>
+  </si>
+  <si>
+    <t>Отличная карта! Есть возможность получать cashback, стильный дизайн, и даже бесплатное обслуживание. Рекомендую всем, кто ценит удобство и комфорт. Ипотека "Новостройка"</t>
+  </si>
+  <si>
+    <t>Процентная ставка по ипотеке оказалась выше, чем у других банков. Но компания предлагает выгодные условия для покупки квартиры в новостройке. В целом, нормальная ипотека, но есть нюансы. Вклад "Сберегательный"</t>
+  </si>
+  <si>
+    <t>Отличный вклад для пенсионеров, процентная ставка выше, чем у других банков. И удобные условия для снятия денег. Мобильное приложение "Простой"</t>
+  </si>
+  <si>
+    <t>Хороший выбор для молодых семей, есть возможность снизить процентную ставку. Но условия получения ипотеки довольно жесткие. Вклад "Пенсионный"</t>
+  </si>
+  <si>
+    <t>Удобная карта для получения зарплаты, есть возможность оплачивать услуги и товары онлайн. Но хотелось бы, чтобы банк предлагал больше возможностей для cashback. Ипотека "Молодая семья"</t>
+  </si>
+  <si>
+    <t>Неплохая карта для повседневных покупок, но нет никаких бонусов. И комиссия за снятие наличных достаточно высокая. В целом, средняя карта. Дебетовая карта "Стандарт"</t>
+  </si>
+  <si>
+    <t>Приложение удобное, работает быстро, но иногда бывают проблемы с авторизацией. В целом, хорошее приложение, но есть небольшие недостатки. Кредитная карта "Классическая"</t>
+  </si>
+  <si>
+    <t>Отличный вклад для сбережений, процентная ставка стабильная, и я не беспокоюсь за сохранность своих средств. Рекомендую всем! Мобильное приложение "Оптима"</t>
+  </si>
+  <si>
+    <t>Прекрасная карта! Стильный дизайн, возможность получать бонусы, а еще есть страховка от кражи. Не могу нарадоваться! Дебетовая карта "Silver"</t>
+  </si>
+  <si>
+    <t>Приложение удобное, работает быстро, но иногда бывают проблемы с авторизацией. В целом, хорошее приложение, но есть небольшие недостатки. Кредитная карта "Золотая"</t>
+  </si>
+  <si>
+    <t>Отличный вклад для долгосрочных накоплений, процентная ставка выше, чем у других банков. И удобные условия для снятия денег. Мобильное приложение "BankPro"</t>
+  </si>
+  <si>
+    <t>Хороший вариант для студентов, есть возможность отложить первый взнос. Но процентная ставка немного выше, чем у других банков. Вклад "Накопительный+"</t>
+  </si>
+  <si>
+    <t>Отличная карта! Есть возможность получать cashback, стильный дизайн, и даже бесплатное обслуживание. Рекомендую всем, кто ценит удобство и комфорт. Ипотека "Студенческая"</t>
+  </si>
+  <si>
+    <t>Удобная карта для путешествий, есть возможность получать бонусы за покупки в зарубежных магазинах. Но комиссия за снятие наличных за границей довольно высокая. Дебетовая карта "Premium"</t>
+  </si>
+  <si>
+    <t>Простая карта без излишеств, но нет никаких бонусов. В целом, нормальная карта для повседневных покупок. Ипотека "Моя мечта"</t>
+  </si>
+  <si>
+    <t>Идеальная карта! Бесплатное обслуживание, высокий cashback, а еще возможность путешествовать в бизнес-классе! Я очень доволен! Дебетовая карта "Basic"</t>
+  </si>
+  <si>
+    <t>Приложение удобное, работает быстро, но иногда бывают проблемы с интернет-банком. В целом, хорошее приложение, но есть нюансы. Кредитная карта "Platinum"</t>
+  </si>
+  <si>
+    <t>Хороший вклад, процентная ставка выше, чем у других банков. Но жаль, что нет возможности пополнить вклад онлайн. Хотелось бы, чтобы банк был более современным в этом плане. Мобильное приложение "SmartBank"</t>
+  </si>
+  <si>
+    <t>Процентная ставка по ипотеке оказалась немного выше, чем я ожидала, но зато условия оформления очень лояльные. Довольна! Вклад "Доходный+"</t>
+  </si>
+  <si>
+    <t>Приложение удобное, но не очень информативное. Не всегда можно найти необходимую информацию. В целом, нормальное приложение, но есть недостатки. Кредитная карта "Travel"</t>
+  </si>
+  <si>
+    <t>Хороший вклад, процентная ставка выше, чем у других банков. Но жаль, что нет возможности снять деньги онлайн. Хотелось бы, чтобы банк был более современным в этом плане. Мобильное приложение "MobileBank"</t>
+  </si>
+  <si>
+    <t>Хороший вклад, процентная ставка выше, чем у других банков. Но жаль, что нет возможности пополнить вклад онлайн. Хотелось бы, чтобы банк был более современным в этом плане. Мобильное приложение "SmartBank++"</t>
+  </si>
+  <si>
+    <t>Приложение удобное, работает быстро, но иногда бывают проблемы с интернет-банком. В целом, хорошее приложение, но есть нюансы. Кредитная карта "Platinum++"</t>
+  </si>
+  <si>
+    <t>Идеальная карта! Бесплатное обслуживание, высокий cashback, а еще возможность путешествовать в бизнес-классе! Я очень доволен! Дебетовая карта "Basic++"</t>
+  </si>
+  <si>
+    <t>Приложении удобное, работает быстро, но иногда бывают проблемы с работой сервиса. В целом, достойное приложение, но есть куда расти. Кредитная карта "MasterCard Gold"</t>
+  </si>
+  <si>
+    <t>Удобная карта для получения бонусных баллов, но их сложно потратить. Иногда бывают проблемы с зачислением бонусов на счет. В целом, нормальная карта, но есть нюансы. Дебетовая карта "Visa Gold"</t>
+  </si>
+  <si>
+    <t>Процентная ставка по ипотеке оказалась немного выше, чем я ожидала, но зато условия оформления очень лояльные. Довольна! Вклад "Доходный+++++"</t>
+  </si>
+  <si>
+    <t>Простая карта без излишеств, но нет никаких бонусов. В целом, нормальная карта для повседневных покупок. Ипотека "Моя мечта++"</t>
+  </si>
+  <si>
+    <t>Хорошая ипотека, процентная ставка вполне адекватная. Но условия оформления достаточно сложные. В целом, рекомендую. Вклад "Стабильный+++"</t>
+  </si>
+  <si>
+    <t>Хороший вклад, процентная ставка выше, чем у других банков. Но жаль, что нет возможности снять деньги онлайн. Хотелось бы, чтобы банк был более современным в этом плане. Мобильное приложение "MobileBank++"</t>
+  </si>
+  <si>
+    <t>Удобная карта, бесплатное обслуживание, но не очень большой cashback. В целом, хорошая карта для повседневных покупок. Ипотека "Счастливая семья+++"</t>
+  </si>
+  <si>
+    <t>Удобная карта, бесплатное обслуживание, но не очень большой cashback. В целом, хорошая карта для повседневных покупок. Ипотека "Счастливая семья"</t>
+  </si>
+  <si>
+    <t>Прекрасная карта! Стильный дизайн, возможность получать бонусы, а еще есть страховка от кражи. Не могу нарадоваться! Дебетовая карта "Silver++"</t>
+  </si>
+  <si>
+    <t>Хороший выбор для семей с детьми, есть возможность снизить процентную ставку, если у вас есть ребенок. Но условия получения ипотеки довольно жесткие. Вклад "Доходный++"</t>
+  </si>
+  <si>
+    <t>Отличный вклад для долгосрочных накоплений, процентная ставка выше, чем у других банков. И удобные условия для снятия денег. Мобильное приложение "BankApp"</t>
+  </si>
+  <si>
+    <t>Удобная карта для получения зарплаты, есть возможность оплачивать услуги и товары онлайн. Но хотелось бы, чтобы банк предлагал больше возможностей для cashback. Ипотека "Счастливая семья+"</t>
+  </si>
+  <si>
+    <t>Неплохая карта, но нет никаких бонусов. И комиссия за снятие наличных достаточно высокая. В целом, средняя карта. Дебетовая карта "Maestro"</t>
+  </si>
+  <si>
+    <t>Приложение удобное, работает быстро, но иногда бывают проблемы с авторизацией. В целом, хорошее приложение, но есть нюансы. Кредитная карта "Visa Classic"</t>
+  </si>
+  <si>
+    <t>Отличная карта! Есть возможность получать cashback, стильный дизайн, и даже бесплатное обслуживание. Рекомендую всем, кто ценит удобство и комфорт. Ипотека "Новостройка+"</t>
+  </si>
+  <si>
+    <t>Процентная ставка по ипотеке оказалась выше, чем у других банков. Но компания предлагает выгодные условия для покупки квартиры в новостройке. В целом, нормальная ипотека, но есть нюансы. Вклад "Сберегательный+"</t>
+  </si>
+  <si>
+    <t>Хороший выбор для молодых семей, есть возможность снизить процентную ставку. Но условия получения ипотеки довольно жесткие. Вклад "Пенсионный+"</t>
+  </si>
+  <si>
+    <t>Отличный вклад для пенсионеров, процентная ставка выше, чем у других банков. И удобные условия для снятия денег. Мобильное приложение "Simple"</t>
+  </si>
+  <si>
+    <t>Хорошая ипотека, процентная ставка вполне адекватная. Но условия оформления достаточно сложные. В целом, рекомендую. Вклад "Стабильный+"</t>
+  </si>
+  <si>
+    <t>Приложение удобное, но не очень информативное. Не всегда можно найти необходимую информацию. В целом, нормальное приложение, но есть недостатки. Кредитная карта "Travel+"</t>
+  </si>
+  <si>
+    <t>Удобная карта для путешествий, есть возможность получать бонусы за покупки в зарубежных магазинах. Но комиссия за снятие наличных за границей довольно высокая. Дебетовая карта "Visa Infinite"</t>
+  </si>
+  <si>
+    <t>Отличная карта! Есть возможность получать cashback, стильный дизайн, и даже бесплатное обслуживание. Рекомендую всем, кто ценит удобство и комфорт. Ипотека "Студенческая+"</t>
+  </si>
+  <si>
+    <t>Хороший вариант для студентов, есть возможность отложить первый взнос. Но процентная ставка немного выше, чем у других банков. Вклад "Накопительный++"</t>
+  </si>
+  <si>
+    <t>Отличный вклад для долгосрочных накоплений, процентная ставка выше, чем у других банков. И удобные условия для снятия денег. Мобильное приложение "Bank+"</t>
+  </si>
+  <si>
+    <t>Удобная карта для получения зарплаты, есть возможность оплачивать услуги и товары онлайн. Но хотелось бы, чтобы банк предлагал больше возможностей для cashback. Ипотека "Молодая семья+"</t>
+  </si>
+  <si>
+    <t>Неплохая карта для повседневных покупок, но нет никаких бонусов. И комиссия за снятие наличных достаточно высокая. В целом, средняя карта. Дебетовая карта "MasterCard Platinum"</t>
+  </si>
+  <si>
+    <t>Прекрасная карта! Стильный дизайн, возможность получать бонусы, а еще есть страховка от кражи. Не могу нарадоваться! Дебетовая карта "Silver+"</t>
+  </si>
+  <si>
+    <t>Приложение удобное, работает быстро, но иногда бывают проблемы с авторизацией. В целом, хорошее приложение, но есть небольшие недостатки. Кредитная карта "Visa Platinum"</t>
+  </si>
+  <si>
+    <t>Отличный вклад для сбережений, процентная ставка стабильная, и я не беспокоюсь за сохранность своих средств. Рекомендую всем! Мобильное приложение "Smart"</t>
+  </si>
+  <si>
+    <t>Приложение удобное, работает быстро, но иногда бывают проблемы с авторизацией. В целом, хорошее приложение, но есть нюансы. Кредитная карта "Visa Classic++"</t>
+  </si>
+  <si>
+    <t>Приложение удобное, работает быстро, но иногда бывают проблемы с авторизацией. В целом, хорошее приложение, но есть небольшие недостатки. Кредитная карта "Gold+"</t>
+  </si>
+  <si>
+    <t>Удобная карта, бесплатное обслуживание, но не очень большой cashback. В целом, хорошая карта для повседневных покупок. Ипотека "Счастливая семья++"</t>
+  </si>
+  <si>
+    <t>Идеальная карта! Бесплатное обслуживание, высокий cashback, а еще возможность путешествовать в бизнес-классе! Я очень доволен! Дебетовая карта "Basic+"</t>
+  </si>
+  <si>
+    <t>Простая карта без излишеств, но нет никаких бонусов. В целом, нормальная карта для повседневных покупок. Ипотека "Моя мечта+"</t>
+  </si>
+  <si>
+    <t>Хорошая ипотека, процентная ставка вполне адекватная. Но условия оформления достаточно сложные. В целом, рекомендую. Вклад "Стабильный++"</t>
+  </si>
+  <si>
+    <t>Хороший вклад, процентная ставка выше, чем у других банков. Но жаль, что нет возможности пополнить вклад онлайн. Хотелось бы, чтобы банк был более современным в этом плане. Мобильное приложение "SmartBank+"</t>
+  </si>
+  <si>
+    <t>Приложение удобное, работает быстро, но иногда бывают проблемы с интернет-банком. В целом, хорошее приложение, но есть нюансы. Кредитная карта "Platinum+"</t>
+  </si>
+  <si>
+    <t>Процентная ставка по ипотеке оказалась немного выше, чем я ожидала, но зато условия оформления очень лояльные. Довольна! Вклад "Доходный+++"</t>
+  </si>
+  <si>
+    <t>Неплохая карта, но нет никаких бонусов. И комиссия за снятие наличных достаточно высокая. В целом, средняя карта. Дебетовая карта "Maestro++"</t>
+  </si>
+  <si>
+    <t>Удобная карта для получения зарплаты, есть возможность оплачивать услуги и товары онлайн. Но хотелось бы, чтобы банк предлагал больше возможностей для cashback. Ипотека "Счастливая семья+++++"</t>
+  </si>
+  <si>
+    <t>Хороший выбор для семей с детьми, есть возможность снизить процентную ставку, если у вас есть ребенок. Но условия получения ипотеки довольно жесткие. Вклад "Доходный+++++"</t>
+  </si>
+  <si>
+    <t>Отличный вклад для долгосрочных накоплений, процентная ставка выше, чем у других банков. И удобные условия для снятия денег. Мобильное приложение "Bank++++"</t>
+  </si>
+  <si>
+    <t>Приложении удобное, работает быстро, но иногда бывают проблемы с работой сервиса. В целом, достойное приложение, но есть куда расти. Кредитная карта "MasterCard Gold+++"</t>
+  </si>
+  <si>
+    <t>Удобная карта для получения бонусных баллов, но их сложно потратить. Иногда бывают проблемы с зачислением бонусов на счет. В целом, нормальная карта, но есть нюансы. Дебетовая карта "Visa Gold+++"</t>
+  </si>
+  <si>
+    <t>Отличная карта! Есть возможность получать cashback, стильный дизайн, и даже бесплатное обслуживание. Рекомендую всем, кто ценит удобство и комфорт. Ипотека "Новостройка+++"</t>
+  </si>
+  <si>
+    <t>Приложение удобное, работает быстро, но иногда бывают проблемы с авторизацией. В целом, хорошее приложение, но есть небольшие недостатки. Кредитная карта "Gold"</t>
+  </si>
+  <si>
+    <t>Процентная ставка по ипотеке оказалась выше, чем у других банков. Но компания предлагает выгодные условия для покупки квартиры в новостройке. В целом, нормальная ипотека, но есть нюансы. Вклад "Сберегательный+++"</t>
+  </si>
+  <si>
+    <t>Отличный вклад для сбережений, процентная ставка стабильная, и я не беспокоюсь за сохранность своих средств. Рекомендую всем! Мобильное приложение "Smart+++"</t>
+  </si>
+  <si>
+    <t>Хороший выбор для семей с детьми, есть возможность снизить процентную ставку, если у вас есть ребенок. Но условия получения ипотеки довольно жесткие. Вклад "Доходный++++"</t>
+  </si>
+  <si>
+    <t>Отличный вклад для долгосрочных накоплений, процентная ставка выше, чем у других банков. И удобные условия для снятия денег. Мобильное приложение "BankApp+"</t>
+  </si>
+  <si>
+    <t>Приложении удобное, работает быстро, но иногда бывают проблемы с работой сервиса. В целом, достойное приложение, но есть куда расти. Кредитная карта "MasterCard Gold+"</t>
+  </si>
+  <si>
+    <t>Удобная карта для получения бонусных баллов, но их сложно потратить. Иногда бывают проблемы с зачислением бонусов на счет. В целом, нормальная карта, но есть нюансы. Дебетовая карта "Visa Gold+"</t>
+  </si>
+  <si>
+    <t>Отличная карта! Есть возможность получать cashback, стильный дизайн, и даже бесплатное обслуживание. Рекомендую всем, кто ценит удобство и комфорт. Ипотека "Новостройка++"</t>
+  </si>
+  <si>
+    <t>Процентная ставка по ипотеке оказалась выше, чем у других банков. Но компания предлагает выгодные условия для покупки квартиры в новостройке. В целом, нормальная ипотека, но есть нюансы. Вклад "Сберегательный++"</t>
+  </si>
+  <si>
+    <t>Отличный вклад для пенсионеров, процентная ставка выше, чем у других банков. И удобные условия для снятия денег. Мобильное приложение "Simple+++"</t>
+  </si>
+  <si>
+    <t>Приложение удобное, но не очень информативное. Не всегда можно найти необходимую информацию. В целом, нормальное приложение, но есть недостатки. Кредитная карта "Travel++++"</t>
+  </si>
+  <si>
+    <t>Удобная карта для получения зарплаты, есть возможность оплачивать услуги и товары онлайн. Но хотелось бы, чтобы банк предлагал больше возможностей для cashback. Ипотека "Счастливая семья+++"</t>
+  </si>
+  <si>
+    <t>Неплохая карта, но нет никаких бонусов. И комиссия за снятие наличных достаточно высокая. В целом, средняя карта. Дебетовая карта "Maestro+"</t>
+  </si>
+  <si>
+    <t>Приложение удобное, работает быстро, но иногда бывают проблемы с авторизацией. В целом, хорошее приложение, но есть нюансы. Кредитная карта "Visa Classic+"</t>
+  </si>
+  <si>
+    <t>Удобная карта для путешествий, есть возможность получать бонусы за покупки в зарубежных магазинах. Но комиссия за снятие наличных за границей довольно высокая. Дебетовая карта "Visa Infinite+++"</t>
+  </si>
+  <si>
+    <t>Отличная карта! Есть возможность получать cashback, стильный дизайн, и даже бесплатное обслуживание. Рекомендую всем, кто ценит удобство и комфорт. Ипотека "Студенческая++++"</t>
+  </si>
+  <si>
+    <t>Хороший вариант для студентов, есть возможность отложить первый взнос. Но процентная ставка немного выше, чем у других банков. Вклад "Накопительный+++++"</t>
+  </si>
+  <si>
+    <t>Хороший выбор для молодых семей, есть возможность снизить процентную ставку. Но условия получения ипотеки довольно жесткие. Вклад "Пенсионный++++"</t>
+  </si>
+  <si>
+    <t>Удобная карта для получения зарплаты, есть возможность оплачивать услуги и товары онлайн. Но хотелось бы, чтобы банк предлагал больше возможностей для cashback. Ипотека "Молодая семья++++"</t>
+  </si>
+  <si>
+    <t>Неплохая карта для повседневных покупок, но нет никаких бонусов. И комиссия за снятие наличных достаточно высокая. В целом, средняя карта. Дебетовая карта "MasterCard Platinum+++"</t>
+  </si>
+  <si>
+    <t>Отличный вклад для долгосрочных накоплений, процентная ставка выше, чем у других банков. И удобные условия для снятия денег. Мобильное приложение "Bank+++++"</t>
+  </si>
+  <si>
+    <t>Отличный вклад для сбережений, процентная ставка стабильная, и я не беспокоюсь за сохранность своих средств. Рекомендую всем! Мобильное приложение "Smart+"</t>
+  </si>
+  <si>
+    <t>Приложение удобное, работает быстро, но иногда бывают проблемы с авторизацией. В целом, хорошее приложение, но есть небольшие недостатки. Кредитная карта "Visa Platinum+"</t>
+  </si>
+  <si>
+    <t>Неплохая карта для повседневных покупок, но нет никаких бонусов. И комиссия за снятие наличных достаточно высокая. В целом, средняя карта. Дебетовая карта "MasterCard Platinum+"</t>
+  </si>
+  <si>
+    <t>Приложение удобное, работает быстро, но иногда бывают проблемы с авторизацией. В целом, хорошее приложение, но есть небольшие недостатки. Кредитная карта "Gold+++"</t>
+  </si>
+  <si>
+    <t>Хороший вклад, процентная ставка выше, чем у других банков. Но жаль, что нет возможности снять деньги онлайн. Хотелось бы, чтобы банк был более современным в этом плане. Мобильное приложение "MobileBank+"</t>
+  </si>
+  <si>
+    <t>Удобная карта для получения зарплаты, есть возможность оплачивать услуги и товары онлайн. Но хотелось бы, чтобы банк предлагал больше возможностей для cashback. Ипотека "Молодая семья++"</t>
+  </si>
+  <si>
+    <t>Прекрасная карта! Стильный дизайн, возможность получать бонусы, а еще есть страховка от кражи. Не могу нарадоваться! Дебетовая карта "Silver++++"</t>
+  </si>
+  <si>
+    <t>Удобная карта, бесплатное обслуживание, но не очень большой cashback. В целом, хорошая карта для повседневных покупок. Ипотека "Счастливая семья+++++"</t>
+  </si>
+  <si>
+    <t>Хороший выбор для молодых семей, есть возможность снизить процентную ставку. Но условия получения ипотеки довольно жесткие. Вклад "Пенсионный++"</t>
+  </si>
+  <si>
+    <t>Приложение удобное, работает быстро, но иногда бывают проблемы с авторизацией. В целом, хорошее приложение, но есть небольшие недостатки. Кредитная карта "Visa Platinum+++"</t>
+  </si>
+  <si>
+    <t>Хороший вклад, процентная ставка выше, чем у других банков. Но жаль, что нет возможности пополнить вклад онлайн. Хотелось бы, чтобы банк был более современным в этом плане. Мобильное приложение "SmartBank++++"</t>
+  </si>
+  <si>
+    <t>Отличный вклад для пенсионеров, процентная ставка выше, чем у других банков. И удобные условия для снятия денег. Мобильное приложение "Simple+"</t>
+  </si>
+  <si>
+    <t>Процентная ставка по ипотеке оказалась выше, чем у других</t>
+  </si>
+  <si>
+    <t>Приложение удобное, но не очень информативное. Не всегда можно найти необходимую информацию. В целом, нормальное приложение, но есть недостатки. Кредитная карта "Travel++"</t>
+  </si>
+  <si>
+    <t>Удобная карта для путешествий, есть возможность получать бонусы за покупки в зарубежных магазинах. Но комиссия за снятие наличных за границей довольно высокая. Дебетовая карта "Visa Infinite+"</t>
+  </si>
+  <si>
+    <t>Отличная карта! Есть возможность получать cashback, стильный дизайн, и даже бесплатное обслуживание. Рекомендую всем, кто ценит удобство и комфорт. Ипотека "Студенческая++"</t>
+  </si>
+  <si>
+    <t>Хороший вариант для студентов, есть возможность отложить первый взнос. Но процентная ставка немного выше, чем у других банков. Вклад "Накопительный+++"</t>
+  </si>
+  <si>
+    <t>Приложение удобное, работает быстро, но иногда бывают проблемы с интернет-банком. В целом, хорошее приложение, но есть нюансы. Кредитная карта "Platinum++++"</t>
+  </si>
+  <si>
+    <t>Отличный вклад для долгосрочных накоплений, процентная ставка выше, чем у других банков. И удобные условия для снятия денег. Мобильное приложение "Bank++"</t>
+  </si>
+  <si>
+    <t>Идеальная карта! Бесплатное обслуживание, высокий cashback, а еще возможность путешествовать в бизнес-классе! Я очень доволен! Дебетовая карта "Basic++++"</t>
+  </si>
+  <si>
+    <t>Процентная ставка по ипотеке оказалась выше, чем у других банков. Но компания предлагает выгодные условия для покупки квартиры в новостройке. В целом, нормальная ипотека, но есть нюансы. Вклад "Сберегательный++++"</t>
+  </si>
+  <si>
+    <t>Простая карта без излишеств, но нет никаких бонусов. В целом, нормальная карта для повседневных покупок. Ипотека "Моя мечта++++"</t>
+  </si>
+  <si>
+    <t>Хорошая ипотека, процентная ставка вполне адекватная. Но условия оформления достаточно сложные. В целом, рекомендую. Вклад "Стабильный+++++"</t>
+  </si>
+  <si>
+    <t>Хороший вклад, процентная ставка выше, чем у других банков. Но жаль, что нет возможности снять деньги онлайн. Хотелось бы, чтобы банк был более современным в этом плане. Мобильное приложение "MobileBank++++"</t>
+  </si>
+  <si>
+    <t>Приложение удобное, работает быстро, но иногда бывают проблемы с авторизацией. В целом, хорошее приложение, но есть нюансы. Кредитная карта "Visa Classic++++"</t>
+  </si>
+  <si>
+    <t>Отличная карта! Есть возможность получать cashback, стильный дизайн, и даже бесплатное обслуживание. Рекомендую всем, кто ценит удобство и комфорт. Ипотека "Новостройка+++++"</t>
+  </si>
+  <si>
+    <t>Неплохая карта, но нет никаких бонусов. И комиссия за снятие наличных достаточно высокая. В целом, средняя карта. Дебетовая карта "Maestro++++"</t>
+  </si>
+  <si>
+    <t>Приложении удобное, работает быстро, но иногда бывают проблемы с работой сервиса. В целом, достойное приложение, но есть куда расти. Кредитная карта "MasterCard Gold++++"</t>
+  </si>
+  <si>
+    <t>Удобная карта для получения бонусных баллов, но их сложно потратить. Иногда бывают проблемы с зачислением бонусов на счет. В целом, нормальная карта, но есть нюансы. Дебетовая карта "Visa Gold++++"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="10">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="42">
+    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Заголовок 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Контрольная ячейка" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -296,90 +1370,1047 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A204"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>164</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>